--- a/BOM/BOM_Gerber_Wuxi SD TF_2025-03-18_2025-05-05.xlsx
+++ b/BOM/BOM_Gerber_Wuxi SD TF_2025-03-18_2025-05-05.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="600" windowWidth="26550" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PCB_MX1.25_20250318_2025-05" sheetId="1" r:id="rId1"/>
@@ -128,49 +128,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商家的出厂设置可定义在DOOR模式，RHEA/PHOEBE可兼容此模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUTTON模式适用于RHEA/PHOEBE,此时FN焊盘需要连接到RHEA/PHOEBE的按钮开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOOR模式模拟了CD舱盖的开关，适用于部分FENRIR，但由于FENRIR只做了硬件的保留，软件目前并没有启用该功能，现在将不起作用，需要作者CED增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODE跳线：此跳线设定了SW2的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB厚度1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RI-R6可以不使用（如果使用，可以增加少部分TF卡兼容性）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R8-R11仅用于增加厚度以适合RHEA/PHOEBE的SD卡槽，如果你是个人自制仅用于fenrir，可以不使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">
+PCB thickness 1mm</t>
+  </si>
+  <si>
+    <t>RI-R6 can be used without using it (if used, it can increase the compatibility of some TF cards)</t>
+  </si>
+  <si>
+    <t>R8-R11 is only used to increase the thickness to fit the SD card slot of RHEA/PHOEBE. If you are making your own for fenrir only, you don’t need to use it.</t>
+  </si>
+  <si>
+    <t>MODE jumper: This jumper sets the function of SW2</t>
+  </si>
+  <si>
+    <t>BUTTON mode is suitable for RHEA/PHOEBE. In this case, the FN pad needs to be connected to the button switch of RHEA/PHOEBE.</t>
+  </si>
+  <si>
+    <t>The DOOR mode simulates the opening and closing of the CD compartment cover, which is applicable to some FENRIRs. However, since FENRIR only retains the hardware, the software currently does not enable this function, so it will not work now. The author CED needs to add this feature.</t>
+  </si>
+  <si>
+    <t>The factory settings of the merchant can be defined in DOOR mode, and RHEA/PHOEBE is compatible with this mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,12 +196,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,7 +236,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -272,14 +275,20 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -312,14 +321,20 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPr id="1031" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -668,17 +683,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -847,19 +862,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>41</v>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -869,17 +884,17 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
